--- a/data/ts_meta_check.xlsx
+++ b/data/ts_meta_check.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>TAP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AOS</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>IQV</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>ATO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AFL</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>LHX</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>UAL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AKAM</t>
+          <t>FFIV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>GL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>OXY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>BBY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>HOLX</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>EXPD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>ZTS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>PGR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AEE</t>
+          <t>VTRS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>WAB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>DUK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AWK</t>
+          <t>BAX</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AME</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>PRU</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ANSS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AON</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>GDDY</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>BWA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>APTV</t>
+          <t>BXP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ACGL</t>
+          <t>SCHW</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ADM</t>
+          <t>KKR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AJG</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AIZ</t>
+          <t>HBAN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ATO</t>
+          <t>ULTA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>EMN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AZO</t>
+          <t>EOG</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AVB</t>
+          <t>AOS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AXON</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>NTAP</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BALL</t>
+          <t>HWM</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>NVR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>BDX</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BBY</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TECH</t>
+          <t>GRMN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>LH</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>STE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>RVTY</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>PNR</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>NCLH</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>XEL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SYK</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BRO</t>
+          <t>SNPS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>MAS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BXP</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CHRW</t>
+          <t>NDAQ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>AZO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CZR</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CPT</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CPB</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>ITW</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CAH</t>
+          <t>LNT</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KMX</t>
+          <t>BALL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>FDS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CARR</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CBOE</t>
+          <t>TRGP</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CBRE</t>
+          <t>INVH</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>RMD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>PPG</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>PNW</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1906,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>CHRW</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>EMR</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SCHW</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1951,12 +1951,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>CFG</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>APD</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>SWKS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1996,12 +1996,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>CCI</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CHD</t>
+          <t>JCI</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>COF</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>SYF</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>EIX</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>AWK</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>HST</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>EFX</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CAG</t>
+          <t>ECL</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ED</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>STZ</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>HUBB</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>INCY</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CPAY</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2356,12 +2356,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CTVA</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>ED</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CTRA</t>
+          <t>MTD</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>CAG</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>FTNT</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>WM</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>RSG</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>SBAC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DVA</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>DVA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TFX</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>AXON</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TECH</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>CNP</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>PHM</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2671,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DFS</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>EQIX</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>SNA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>SHW</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NDSN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>EMN</t>
+          <t>IPG</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ETN</t>
+          <t>BRK-B</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>PARA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECL</t>
+          <t>ISRG</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2896,12 +2896,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>EIX</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>GLW</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>EMR</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ENPH</t>
+          <t>NI</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2986,12 +2986,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ETR</t>
+          <t>CLX</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>EOG</t>
+          <t>AME</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3031,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3046,12 +3046,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>HPE</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EQIX</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>MET</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3091,12 +3091,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ERIE</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>VLTO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>LYV</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>EVRG</t>
+          <t>ELV</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>EBAY</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>EXPD</t>
+          <t>OKE</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>TRMB</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>CRL</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3256,12 +3256,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FFIV</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>AKAM</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>HRL</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3376,12 +3376,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>MTCH</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FMC</t>
+          <t>IRM</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>ORLY</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3451,12 +3451,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>MMC</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>ETN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>LDOS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>TSCO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3526,12 +3526,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>DOV</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MPWR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>KMI</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>ZBRA</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>HLT</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>EQR</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>WYNN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3691,12 +3691,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>GPC</t>
+          <t>AFL</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>TJX</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>CINF</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>OTIS</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>CARR</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>LKQ</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3811,12 +3811,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>HAS</t>
+          <t>LII</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>STT</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>HSIC</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>HSY</t>
+          <t>DTE</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3886,12 +3886,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>HES</t>
+          <t>SWK</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>WY</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3916,12 +3916,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>HLT</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>HRL</t>
+          <t>LW</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4006,12 +4006,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>TROW</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4036,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>HUM</t>
+          <t>AVY</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>AEE</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4111,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>IEX</t>
+          <t>CBOE</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4126,12 +4126,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ITW</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4156,12 +4156,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4186,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>RJF</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4231,12 +4231,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>IPG</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4276,12 +4276,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4291,12 +4291,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>HCA</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>MCK</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>INVH</t>
+          <t>XYL</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4336,12 +4336,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IQV</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>IRM</t>
+          <t>SMCI</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>JBHT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>JBL</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4396,12 +4396,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>PODD</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>DPZ</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4426,12 +4426,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>JCI</t>
+          <t>IEX</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>AIZ</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4471,12 +4471,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>JNPR</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4486,12 +4486,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>BF-B</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>SYY</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4531,12 +4531,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>KEY</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>KEYS</t>
+          <t>IVZ</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>KIM</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>KMI</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>KMX</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4636,12 +4636,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>HIG</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>KEYS</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>LHX</t>
+          <t>OMC</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4681,12 +4681,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>LH</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>MTB</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4711,12 +4711,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>LW</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4726,12 +4726,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>NTRS</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>LDOS</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>AON</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4771,12 +4771,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>CPAY</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>WEC</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>LVS</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>VICI</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4876,12 +4876,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HES</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>WDAY</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>LYB</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4921,12 +4921,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>MTB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>CHD</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>MKTX</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4966,12 +4966,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4981,12 +4981,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>MMC</t>
+          <t>ACGL</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>MLM</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>BSX</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MTCH</t>
+          <t>ICE</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MKC</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>EW</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5101,12 +5101,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>COO</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5131,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>IFF</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>ABNB</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5161,12 +5161,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>AIG</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5191,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>CTVA</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5236,12 +5236,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>MAA</t>
+          <t>TPL</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>GEN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>MHK</t>
+          <t>CAH</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5281,12 +5281,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5311,12 +5311,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5341,12 +5341,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>NSC</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5356,12 +5356,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>TSN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5371,12 +5371,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>APTV</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5386,12 +5386,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>MOS</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5401,12 +5401,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5416,12 +5416,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>MSCI</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>PWR</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>ARE</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5476,12 +5476,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>PEG</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5491,12 +5491,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NWSA</t>
+          <t>LYB</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NWS</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5521,12 +5521,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>HSIC</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>JBL</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5551,12 +5551,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5581,12 +5581,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>NWSA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5596,12 +5596,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>NTRS</t>
+          <t>JKHY</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5611,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NOC</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NUE</t>
+          <t>ERIE</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NVR</t>
+          <t>HUM</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5701,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5716,12 +5716,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5731,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>OXY</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>MLM</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>OMC</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5791,12 +5791,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>OKE</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5821,12 +5821,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>OTIS</t>
+          <t>NWS</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5836,12 +5836,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>PKG</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>ROP</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5896,12 +5896,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>PARA</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5911,12 +5911,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5926,12 +5926,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5941,12 +5941,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>TDY</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5971,12 +5971,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>PNR</t>
+          <t>LEN</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -5986,12 +5986,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6001,12 +6001,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CZR</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6031,12 +6031,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>PSX</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>PNW</t>
+          <t>GPC</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6076,12 +6076,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>FRT</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6106,12 +6106,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>PPG</t>
+          <t>FMC</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6121,12 +6121,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>MKC</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>PFG</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6151,12 +6151,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6181,12 +6181,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6211,12 +6211,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>HSY</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6256,12 +6256,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>HPQ</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6286,12 +6286,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>DGX</t>
+          <t>FOXA</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6316,12 +6316,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>GWW</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>WTW</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>PSA</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6361,12 +6361,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>ANET</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6376,12 +6376,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>REG</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6391,12 +6391,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6421,12 +6421,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>GEHC</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6451,12 +6451,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>GPN</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6466,12 +6466,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>ZBH</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6496,12 +6496,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6526,12 +6526,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6541,12 +6541,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>MHK</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6556,12 +6556,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6571,12 +6571,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6586,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>TFC</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6601,12 +6601,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6616,12 +6616,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6631,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>SHW</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6661,12 +6661,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6676,12 +6676,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>FIS</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6691,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6706,12 +6706,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>SNA</t>
+          <t>NOC</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6736,12 +6736,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>AJG</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6751,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>POOL</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6766,12 +6766,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6781,12 +6781,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6796,12 +6796,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6811,12 +6811,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6826,12 +6826,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6841,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>STZ</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6856,12 +6856,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6886,12 +6886,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>NUE</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6916,12 +6916,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>SYY</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>VRSN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6946,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6961,12 +6961,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>CPB</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TRGP</t>
+          <t>JNPR</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7006,12 +7006,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>ETR</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7021,12 +7021,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>KEY</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TDY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7051,12 +7051,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>TFX</t>
+          <t>ALGN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7066,12 +7066,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>TYL</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7081,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>KIM</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7096,12 +7096,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7111,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TPL</t>
+          <t>ALLE</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7126,12 +7126,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CPT</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>AMCR</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>EVRG</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>ANSS</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7186,12 +7186,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>EXPE</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7201,12 +7201,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>CTRA</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>REG</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7231,12 +7231,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7246,12 +7246,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TFC</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7261,12 +7261,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TSN</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7291,12 +7291,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7306,12 +7306,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>MOS</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>PFG</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7366,12 +7366,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7381,12 +7381,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7396,12 +7396,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>CBRE</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7426,12 +7426,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7441,12 +7441,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>META</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7486,12 +7486,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>KHC</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7501,12 +7501,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>MSCI</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7516,12 +7516,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>DGX</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>BRO</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7546,12 +7546,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>VTRS</t>
+          <t>SPGI</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7591,12 +7591,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7606,12 +7606,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>AVB</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7621,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>ESS</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7636,12 +7636,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>GWW</t>
+          <t>FTV</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7651,12 +7651,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>WAB</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7666,12 +7666,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7696,12 +7696,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>JBHT</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7711,12 +7711,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7726,12 +7726,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>MAA</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7756,12 +7756,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>WEC</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7786,12 +7786,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>HAS</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7801,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>AES</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7831,12 +7831,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>WY</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7846,12 +7846,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7861,12 +7861,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7876,12 +7876,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7891,12 +7891,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7906,12 +7906,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>MKTX</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7921,12 +7921,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7936,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7951,12 +7951,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>DFS</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>EXR</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -7996,12 +7996,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>KVUE</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
